--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Pegawai.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Pegawai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8205"/>
+    <workbookView windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1266,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1517,7 +1517,7 @@
       <c r="Q10" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aK3aAsXxYCn8UXuIrp5+qLtMXHiSI77dH+IAv7Vm2b/DZavbV33YW7ew/k4tEP/XCwzsIkQHC3vJenZZdSR6wA==" saltValue="KBddeAMnzHbmozwxENkb7Q==" spinCount="100000" sheet="1" selectLockedCells="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MYxMNUsppaM+pETLCUfEs7YvyNAsxn/sepcsSLI8NTYwomlMuiGPZrU1bVtaH1iGuN4o1+hYNdltHhCEX4AVBw==" saltValue="YBHj28VYZUeLOXWgq23lwg==" spinCount="100000" sheet="1" selectLockedCells="1" insertRows="0" deleteRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:Q52" name="Range1"/>
   </protectedRanges>
@@ -1529,7 +1529,7 @@
       <formula1>"KristenProtestan,Islam,Katolik,Hindu,Budha,Konghucu,KepercayanTuhanYangMahaEsa"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10">
-      <formula1>"Kawin,TidakKawin"</formula1>
+      <formula1>"Kawin,BelumKawin"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K10">
       <formula1>"A,B,AB,O"</formula1>

--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Pegawai.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Pegawai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7485"/>
+    <workbookView windowWidth="19635" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>No. Rekening</t>
   </si>
   <si>
-    <t>Alamat</t>
+    <t>Alamat (Format : Jln. Nama Jalan, RT/RW 00/00, [Kelurahan atau Desa] Nama, Kecamatan Nama, [Kota atau Kabupaten] Nama, Provinsi Nama)</t>
   </si>
   <si>
     <t>No.HP</t>
@@ -709,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +730,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1292,7 +1295,7 @@
     <col min="18" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="30" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1335,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1517,7 +1520,7 @@
       <c r="Q10" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MYxMNUsppaM+pETLCUfEs7YvyNAsxn/sepcsSLI8NTYwomlMuiGPZrU1bVtaH1iGuN4o1+hYNdltHhCEX4AVBw==" saltValue="YBHj28VYZUeLOXWgq23lwg==" spinCount="100000" sheet="1" selectLockedCells="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LoAFvPpFQVOCCkhna8QLENM3/2jg5EU/p4Hm4keF+FuwD1qkKkRTj8sXZ33UnxBuhE/nedp5aSiPsZcDGY2Jvg==" saltValue="ybw9n762iOj24LJZ3Xnghg==" spinCount="100000" sheet="1" selectLockedCells="1" insertRows="0" deleteRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:Q52" name="Range1"/>
   </protectedRanges>
